--- a/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP1/timepoints_all_CP1.xlsx
+++ b/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP1/timepoints_all_CP1.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/dhruv_gupta_kuleuven_be/Documents/KU Leuven/BCN_workshop_full/PredSim-workshop-bcn-2024/Modelling neuromusculoskeletal deficits/ParameterEstimation/Data_CP1/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://kuleuven-my.sharepoint.com/personal/dhruv_gupta_kuleuven_be/Documents/KU Leuven/BCN_workshop_full/PredSim-workshop-bcn-2024/S4. Modelling neuromusculoskeletal deficits/Data/Data_CP1/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="26" documentId="11_714DFAFF8F71526CFCC64347FA012D16618BD0D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{D80117DF-30ED-49D0-BA71-776EDE2CC8BF}"/>
+  <xr:revisionPtr revIDLastSave="27" documentId="11_714DFAFF8F71526CFCC64347FA012D16618BD0D4" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{FCD39F61-A1CB-4EE4-BEF6-408ADF2AEDD3}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -160,71 +160,71 @@
     <t>optTrial</t>
   </si>
   <si>
-    <t>Data_CP1\IK\CP4_T0_10_R_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\ID\CP4_T0_10_R_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_functional\EMG_filt_CP4_T0_10.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IK\CP4_T0_10_L_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\ID\CP4_T0_10_L_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\IK\CP4_T0_Pendulum_Sit_ISO_r_T1_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\ID\CP4_T0_Pendulum_Sit_ISO_r_T1_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_functional\EMG_filt_CP4_T0_Pendulum_Sit_ISO_r_T1.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IK\CP4_T0_Pendulum_Sit_ISO_l_T5_IK.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\ID\CP4_T0_Pendulum_Sit_ISO_l_T5_IK_ID.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_functional\EMG_filt_CP4_T0_Pendulum_Sit_ISO_l_T5.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\JointAngles\JointAngles_segment_2.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\ID\ID_segment_2.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_IPSA\filtEMG_segment_2.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\JointAngles\JointAngles_segment_16.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\ID\ID_segment_16.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_IPSA\filtEMG_segment_16.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\JointAngles\JointAngles_segment_24.mot</t>
-  </si>
-  <si>
-    <t>Data_CP1\IPSA\ID\ID_segment_24.sto</t>
-  </si>
-  <si>
-    <t>Data_CP1\EMG\filtEMG_IPSA\filtEMG_segment_24.mot</t>
+    <t>IK\CP4_T0_10_R_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP4_T0_10_R_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_functional\EMG_filt_CP4_T0_10.mot</t>
+  </si>
+  <si>
+    <t>IK\CP4_T0_10_L_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP4_T0_10_L_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>IK\CP4_T0_Pendulum_Sit_ISO_r_T1_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP4_T0_Pendulum_Sit_ISO_r_T1_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_functional\EMG_filt_CP4_T0_Pendulum_Sit_ISO_r_T1.mot</t>
+  </si>
+  <si>
+    <t>IK\CP4_T0_Pendulum_Sit_ISO_l_T5_IK.mot</t>
+  </si>
+  <si>
+    <t>ID\CP4_T0_Pendulum_Sit_ISO_l_T5_IK_ID.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_functional\EMG_filt_CP4_T0_Pendulum_Sit_ISO_l_T5.mot</t>
+  </si>
+  <si>
+    <t>IPSA\JointAngles\JointAngles_segment_2.mot</t>
+  </si>
+  <si>
+    <t>IPSA\ID\ID_segment_2.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_IPSA\filtEMG_segment_2.mot</t>
+  </si>
+  <si>
+    <t>IPSA\JointAngles\JointAngles_segment_16.mot</t>
+  </si>
+  <si>
+    <t>IPSA\ID\ID_segment_16.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_IPSA\filtEMG_segment_16.mot</t>
+  </si>
+  <si>
+    <t>IPSA\JointAngles\JointAngles_segment_24.mot</t>
+  </si>
+  <si>
+    <t>IPSA\ID\ID_segment_24.sto</t>
+  </si>
+  <si>
+    <t>EMG\filtEMG_IPSA\filtEMG_segment_24.mot</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <name val="Calibri"/>
@@ -572,7 +572,7 @@
       <selection activeCell="G2" sqref="G2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="27.6640625" customWidth="1"/>
     <col min="2" max="2" width="17.21875" customWidth="1"/>
@@ -592,7 +592,7 @@
     <col min="16" max="16" width="7.44140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16">
+    <row r="1" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +642,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="2" spans="1:16">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -686,7 +686,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:16">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -730,7 +730,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:16">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -771,7 +771,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:16">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -812,7 +812,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:16">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
@@ -859,7 +859,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:16">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
@@ -906,7 +906,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:16">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
